--- a/DataTable/Common/ResourceTable.xlsx
+++ b/DataTable/Common/ResourceTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\DG\trunk\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1B062-0727-444D-8AFB-D8D0019E7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8490"/>
+    <workbookView xWindow="13260" yWindow="8100" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>RESOURCE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +60,45 @@
   </si>
   <si>
     <t>StatusBarIcon_Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_GEM_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_GOLD_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_ENERGY_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_GEM_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_GOLD_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_ENERGY_DESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -402,7 +435,7 @@
     <col min="5" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,10 +443,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -421,10 +460,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -432,10 +477,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -443,6 +494,12 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
